--- a/p11/Tiempos.xlsx
+++ b/p11/Tiempos.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29721"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="225" documentId="11_9248B46DC1CBB2E3ED7FF6F9903E8C1851038383" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{336AE46C-3F0C-4D4F-8707-1FB69C02728D}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaiza\OneDrive - Universidad de Oviedo\Escritorio\Alg\IIS-Alg\p11\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EF853E-4324-4859-9210-EF6537845671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabla1" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
   <si>
     <t>Tabla 1 sin optimización</t>
   </si>
@@ -70,13 +75,19 @@
   </si>
   <si>
     <t>Repeticiones = 100000</t>
+  </si>
+  <si>
+    <t>Tcoincidencias1</t>
+  </si>
+  <si>
+    <t>Tcoincidencias2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -165,13 +176,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -181,8 +189,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -201,9 +207,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -241,7 +247,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -347,7 +353,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -489,7 +495,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -497,37 +503,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L35"/>
+  <dimension ref="B1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="3" max="4" width="17" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" customWidth="1"/>
     <col min="8" max="8" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" spans="2:12">
-      <c r="B2" s="6" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="3" spans="2:12">
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -537,18 +542,14 @@
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-    </row>
-    <row r="4" spans="2:12">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>10000</v>
       </c>
@@ -556,206 +557,205 @@
         <f xml:space="preserve"> 480</f>
         <v>480</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <f>758</f>
         <v>758</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="2:12">
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>20000</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <f xml:space="preserve"> 836</f>
         <v>836</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <f>1470</f>
         <v>1470</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>40000</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <f xml:space="preserve"> 1720</f>
         <v>1720</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <f>2906</f>
         <v>2906</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>80000</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <f xml:space="preserve"> 3487</f>
         <v>3487</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <f>5797</f>
         <v>5797</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>160000</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <f xml:space="preserve"> 7077</f>
         <v>7077</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <f>11673</f>
         <v>11673</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>320000</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <f xml:space="preserve"> 14069</f>
         <v>14069</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="2">
         <f>22967</f>
         <v>22967</v>
       </c>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>640000</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <f xml:space="preserve"> 27969</f>
         <v>27969</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="2">
         <f>46291</f>
         <v>46291</v>
       </c>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>1280000</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <f xml:space="preserve"> 56287</f>
         <v>56287</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="2">
         <f>92997</f>
         <v>92997</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>2560000</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <f xml:space="preserve"> 113493</f>
         <v>113493</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="2">
         <v>186301</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>5120000</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <f xml:space="preserve"> 226344</f>
         <v>226344</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <v>377844</v>
       </c>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>10240000</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12">
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>20480000</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12">
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>40960000</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>81920000</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="6" t="s">
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
       <c r="G19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="6" t="s">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
       <c r="G20" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G21" s="1">
         <v>5000</v>
@@ -764,14 +764,14 @@
         <v>334</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>10000</v>
       </c>
       <c r="C22" s="3">
         <v>235</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="2">
         <v>159</v>
       </c>
       <c r="G22" s="1">
@@ -781,14 +781,14 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>20000</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="2">
         <v>461</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="2">
         <v>310</v>
       </c>
       <c r="G23" s="1">
@@ -798,14 +798,14 @@
         <v>5749</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>40000</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="2">
         <v>923</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="2">
         <v>632</v>
       </c>
       <c r="G24" s="1">
@@ -815,14 +815,14 @@
         <v>23485</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>80000</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="2">
         <v>1872</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="2">
         <v>1290</v>
       </c>
       <c r="G25" s="1">
@@ -832,113 +832,113 @@
         <v>93311</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>160000</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="2">
         <v>3841</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="2">
         <v>2558</v>
       </c>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>320000</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="2">
         <v>7575</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="2">
         <v>5151</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>640000</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="2">
         <v>15182</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="2">
         <v>10218</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>1280000</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="2">
         <v>29790</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="2">
         <v>20295</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>2560000</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="2">
         <v>61553</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="2">
         <v>41954</v>
       </c>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <v>5120000</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="2">
         <v>132337</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="2">
         <v>99755</v>
       </c>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <v>10240000</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <v>20480000</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <v>40960000</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <v>81920000</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="4" t="s">
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/p11/Tiempos.xlsx
+++ b/p11/Tiempos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaiza\OneDrive - Universidad de Oviedo\Escritorio\Alg\IIS-Alg\p11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EF853E-4324-4859-9210-EF6537845671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A598CFA7-3BEF-433E-8AE3-03CC238AB1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabla1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>Tabla 1 sin optimización</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>Tabla 2 con optimización</t>
-  </si>
-  <si>
-    <t>PythonA1</t>
   </si>
   <si>
     <t>Repeticiones = 100000</t>
@@ -716,7 +713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>81920000</v>
       </c>
@@ -727,44 +724,33 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="7"/>
-      <c r="G19" t="s">
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="7"/>
-      <c r="G20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="1">
-        <v>5000</v>
-      </c>
-      <c r="H21">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>10000</v>
       </c>
@@ -774,14 +760,9 @@
       <c r="D22" s="2">
         <v>159</v>
       </c>
-      <c r="G22" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H22">
-        <v>1427</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>20000</v>
       </c>
@@ -791,14 +772,9 @@
       <c r="D23" s="2">
         <v>310</v>
       </c>
-      <c r="G23" s="1">
-        <v>20000</v>
-      </c>
-      <c r="H23">
-        <v>5749</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>40000</v>
       </c>
@@ -808,14 +784,9 @@
       <c r="D24" s="2">
         <v>632</v>
       </c>
-      <c r="G24" s="1">
-        <v>40000</v>
-      </c>
-      <c r="H24">
-        <v>23485</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>80000</v>
       </c>
@@ -825,14 +796,9 @@
       <c r="D25" s="2">
         <v>1290</v>
       </c>
-      <c r="G25" s="1">
-        <v>80000</v>
-      </c>
-      <c r="H25">
-        <v>93311</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>160000</v>
       </c>
@@ -843,7 +809,7 @@
         <v>2558</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>320000</v>
       </c>
@@ -854,7 +820,7 @@
         <v>5151</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>640000</v>
       </c>
@@ -865,7 +831,7 @@
         <v>10218</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>1280000</v>
       </c>
@@ -876,7 +842,7 @@
         <v>20295</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>2560000</v>
       </c>
@@ -887,7 +853,7 @@
         <v>41954</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <v>5120000</v>
       </c>
@@ -898,7 +864,7 @@
         <v>99755</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <v>10240000</v>
       </c>
